--- a/viruses/refs/hsv_resist_mut.xlsx
+++ b/viruses/refs/hsv_resist_mut.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hagar\AppData\Roaming\MobaXterm\slash\RemoteFiles\396362_5_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagar\AppData\Roaming\MobaXterm\slash\RemoteFiles\985648_4_66\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7FC81E-7CE2-4C3B-9281-44A76F7D40FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="SNP&amp;del" sheetId="1" r:id="rId1"/>
     <sheet name="insertions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SNP&amp;del'!$A$1:$Q$254</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4862" uniqueCount="904">
   <si>
     <t>Amino acid change</t>
   </si>
@@ -2975,11 +2977,17 @@
   <si>
     <t>102; 104</t>
   </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>JN555585</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3817,34 +3825,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P254"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="174.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="15" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="174.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3893,8 +3901,14 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>902</v>
+      </c>
+      <c r="R1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3943,8 +3957,14 @@
       <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2">
+        <v>47681</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -3993,8 +4013,14 @@
       <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3">
+        <v>47652</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -4043,8 +4069,14 @@
       <c r="P4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4">
+        <v>47645</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -4093,8 +4125,14 @@
       <c r="P5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5">
+        <v>47646</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -4143,8 +4181,14 @@
       <c r="P6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <v>47646</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -4193,8 +4237,14 @@
       <c r="P7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7">
+        <v>47644</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -4243,8 +4293,14 @@
       <c r="P8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8">
+        <v>47640</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -4293,8 +4349,14 @@
       <c r="P9" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9">
+        <v>47637</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
@@ -4343,8 +4405,14 @@
       <c r="P10" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10">
+        <v>47626</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -4393,8 +4461,14 @@
       <c r="P11" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11">
+        <v>47633</v>
+      </c>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>82</v>
       </c>
@@ -4443,8 +4517,14 @@
       <c r="P12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12">
+        <v>47631</v>
+      </c>
+      <c r="R12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>90</v>
       </c>
@@ -4493,8 +4573,14 @@
       <c r="P13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13">
+        <v>47630</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>95</v>
       </c>
@@ -4543,8 +4629,14 @@
       <c r="P14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14">
+        <v>47628</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>97</v>
       </c>
@@ -4593,8 +4685,14 @@
       <c r="P15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15">
+        <v>47628</v>
+      </c>
+      <c r="R15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -4643,8 +4741,14 @@
       <c r="P16" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16">
+        <v>47617</v>
+      </c>
+      <c r="R16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>108</v>
       </c>
@@ -4693,8 +4797,14 @@
       <c r="P17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17">
+        <v>47616</v>
+      </c>
+      <c r="R17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>111</v>
       </c>
@@ -4743,8 +4853,14 @@
       <c r="P18" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18">
+        <v>47615</v>
+      </c>
+      <c r="R18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>115</v>
       </c>
@@ -4793,8 +4909,14 @@
       <c r="P19" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19">
+        <v>47609</v>
+      </c>
+      <c r="R19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>119</v>
       </c>
@@ -4843,8 +4965,14 @@
       <c r="P20" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20">
+        <v>47604</v>
+      </c>
+      <c r="R20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>121</v>
       </c>
@@ -4893,8 +5021,14 @@
       <c r="P21" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21">
+        <v>47582</v>
+      </c>
+      <c r="R21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>121</v>
       </c>
@@ -4943,8 +5077,14 @@
       <c r="P22" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q22">
+        <v>47581</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>126</v>
       </c>
@@ -4993,8 +5133,14 @@
       <c r="P23" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23">
+        <v>47565</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>130</v>
       </c>
@@ -5043,8 +5189,14 @@
       <c r="P24" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24">
+        <v>47556</v>
+      </c>
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>138</v>
       </c>
@@ -5093,8 +5245,14 @@
       <c r="P25" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q25">
+        <v>47551</v>
+      </c>
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>142</v>
       </c>
@@ -5143,8 +5301,14 @@
       <c r="P26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <v>47553</v>
+      </c>
+      <c r="R26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>146</v>
       </c>
@@ -5193,8 +5357,14 @@
       <c r="P27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27">
+        <v>47544</v>
+      </c>
+      <c r="R27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>149</v>
       </c>
@@ -5243,8 +5413,14 @@
       <c r="P28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <v>47541</v>
+      </c>
+      <c r="R28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>154</v>
       </c>
@@ -5293,8 +5469,14 @@
       <c r="P29" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29">
+        <v>47538</v>
+      </c>
+      <c r="R29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>156</v>
       </c>
@@ -5343,8 +5525,14 @@
       <c r="P30" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q30">
+        <v>47520</v>
+      </c>
+      <c r="R30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>159</v>
       </c>
@@ -5393,8 +5581,14 @@
       <c r="P31" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q31">
+        <v>47496</v>
+      </c>
+      <c r="R31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>162</v>
       </c>
@@ -5443,8 +5637,14 @@
       <c r="P32" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q32">
+        <v>47493</v>
+      </c>
+      <c r="R32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>166</v>
       </c>
@@ -5493,8 +5693,14 @@
       <c r="P33" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q33">
+        <v>47491</v>
+      </c>
+      <c r="R33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>169</v>
       </c>
@@ -5543,8 +5749,14 @@
       <c r="P34" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34">
+        <v>47493</v>
+      </c>
+      <c r="R34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>173</v>
       </c>
@@ -5593,8 +5805,14 @@
       <c r="P35" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q35">
+        <v>47489</v>
+      </c>
+      <c r="R35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>178</v>
       </c>
@@ -5643,8 +5861,14 @@
       <c r="P36" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q36">
+        <v>47457</v>
+      </c>
+      <c r="R36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>182</v>
       </c>
@@ -5693,8 +5917,14 @@
       <c r="P37" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q37">
+        <v>47441</v>
+      </c>
+      <c r="R37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>185</v>
       </c>
@@ -5743,8 +5973,14 @@
       <c r="P38" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q38">
+        <v>47434</v>
+      </c>
+      <c r="R38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>185</v>
       </c>
@@ -5793,8 +6029,14 @@
       <c r="P39" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q39">
+        <v>47434</v>
+      </c>
+      <c r="R39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>185</v>
       </c>
@@ -5843,8 +6085,14 @@
       <c r="P40" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q40">
+        <v>47434</v>
+      </c>
+      <c r="R40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>188</v>
       </c>
@@ -5893,8 +6141,14 @@
       <c r="P41" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q41">
+        <v>47428</v>
+      </c>
+      <c r="R41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>192</v>
       </c>
@@ -5943,8 +6197,14 @@
       <c r="P42" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q42">
+        <v>47421</v>
+      </c>
+      <c r="R42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>194</v>
       </c>
@@ -5993,8 +6253,14 @@
       <c r="P43" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q43">
+        <v>47417</v>
+      </c>
+      <c r="R43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>199</v>
       </c>
@@ -6043,8 +6309,14 @@
       <c r="P44" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q44">
+        <v>47412</v>
+      </c>
+      <c r="R44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>202</v>
       </c>
@@ -6093,8 +6365,14 @@
       <c r="P45" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q45">
+        <v>47376</v>
+      </c>
+      <c r="R45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>205</v>
       </c>
@@ -6143,8 +6421,14 @@
       <c r="P46" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q46">
+        <v>47318</v>
+      </c>
+      <c r="R46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>207</v>
       </c>
@@ -6193,8 +6477,14 @@
       <c r="P47" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q47">
+        <v>47319</v>
+      </c>
+      <c r="R47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>210</v>
       </c>
@@ -6243,8 +6533,14 @@
       <c r="P48" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q48">
+        <v>47319</v>
+      </c>
+      <c r="R48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>214</v>
       </c>
@@ -6293,8 +6589,14 @@
       <c r="P49" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q49">
+        <v>47315</v>
+      </c>
+      <c r="R49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>219</v>
       </c>
@@ -6343,8 +6645,14 @@
       <c r="P50" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q50">
+        <v>47303</v>
+      </c>
+      <c r="R50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>222</v>
       </c>
@@ -6393,8 +6701,14 @@
       <c r="P51" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q51">
+        <v>47301</v>
+      </c>
+      <c r="R51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>232</v>
       </c>
@@ -6443,8 +6757,14 @@
       <c r="P52" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q52">
+        <v>47294</v>
+      </c>
+      <c r="R52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>238</v>
       </c>
@@ -6493,8 +6813,14 @@
       <c r="P53" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q53">
+        <v>47288</v>
+      </c>
+      <c r="R53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>241</v>
       </c>
@@ -6543,8 +6869,14 @@
       <c r="P54" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q54">
+        <v>47285</v>
+      </c>
+      <c r="R54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>244</v>
       </c>
@@ -6593,8 +6925,14 @@
       <c r="P55" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q55">
+        <v>47285</v>
+      </c>
+      <c r="R55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>247</v>
       </c>
@@ -6643,8 +6981,14 @@
       <c r="P56" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q56">
+        <v>47283</v>
+      </c>
+      <c r="R56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>251</v>
       </c>
@@ -6693,8 +7037,14 @@
       <c r="P57" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q57">
+        <v>47279</v>
+      </c>
+      <c r="R57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>256</v>
       </c>
@@ -6743,8 +7093,14 @@
       <c r="P58" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q58">
+        <v>47276</v>
+      </c>
+      <c r="R58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>260</v>
       </c>
@@ -6793,8 +7149,14 @@
       <c r="P59" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q59">
+        <v>47277</v>
+      </c>
+      <c r="R59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>262</v>
       </c>
@@ -6843,8 +7205,14 @@
       <c r="P60" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q60">
+        <v>47277</v>
+      </c>
+      <c r="R60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>262</v>
       </c>
@@ -6893,8 +7261,14 @@
       <c r="P61" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q61">
+        <v>47275</v>
+      </c>
+      <c r="R61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>265</v>
       </c>
@@ -6943,8 +7317,14 @@
       <c r="P62" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q62">
+        <v>47270</v>
+      </c>
+      <c r="R62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>267</v>
       </c>
@@ -6993,8 +7373,14 @@
       <c r="P63" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q63">
+        <v>47261</v>
+      </c>
+      <c r="R63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>272</v>
       </c>
@@ -7043,8 +7429,14 @@
       <c r="P64" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q64">
+        <v>47250</v>
+      </c>
+      <c r="R64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>272</v>
       </c>
@@ -7093,8 +7485,14 @@
       <c r="P65" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q65">
+        <v>47249</v>
+      </c>
+      <c r="R65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>277</v>
       </c>
@@ -7143,8 +7541,14 @@
       <c r="P66" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q66">
+        <v>47244</v>
+      </c>
+      <c r="R66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>281</v>
       </c>
@@ -7193,8 +7597,14 @@
       <c r="P67" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q67">
+        <v>47237</v>
+      </c>
+      <c r="R67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>287</v>
       </c>
@@ -7243,8 +7653,14 @@
       <c r="P68" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q68">
+        <v>47205</v>
+      </c>
+      <c r="R68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>292</v>
       </c>
@@ -7293,8 +7709,14 @@
       <c r="P69" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q69">
+        <v>47204</v>
+      </c>
+      <c r="R69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>297</v>
       </c>
@@ -7343,8 +7765,14 @@
       <c r="P70" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q70">
+        <v>47205</v>
+      </c>
+      <c r="R70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>297</v>
       </c>
@@ -7393,8 +7821,14 @@
       <c r="P71" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q71">
+        <v>47204</v>
+      </c>
+      <c r="R71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>300</v>
       </c>
@@ -7443,8 +7877,14 @@
       <c r="P72" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q72">
+        <v>47202</v>
+      </c>
+      <c r="R72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>303</v>
       </c>
@@ -7493,8 +7933,14 @@
       <c r="P73" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q73">
+        <v>47192</v>
+      </c>
+      <c r="R73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>307</v>
       </c>
@@ -7543,8 +7989,14 @@
       <c r="P74" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q74">
+        <v>47187</v>
+      </c>
+      <c r="R74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>312</v>
       </c>
@@ -7593,8 +8045,14 @@
       <c r="P75" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q75">
+        <v>47184</v>
+      </c>
+      <c r="R75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>314</v>
       </c>
@@ -7643,8 +8101,14 @@
       <c r="P76" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q76">
+        <v>47181</v>
+      </c>
+      <c r="R76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>318</v>
       </c>
@@ -7693,8 +8157,14 @@
       <c r="P77" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q77">
+        <v>47180</v>
+      </c>
+      <c r="R77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>321</v>
       </c>
@@ -7743,8 +8213,14 @@
       <c r="P78" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q78">
+        <v>47157</v>
+      </c>
+      <c r="R78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>325</v>
       </c>
@@ -7793,8 +8269,14 @@
       <c r="P79" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q79">
+        <v>47156</v>
+      </c>
+      <c r="R79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>329</v>
       </c>
@@ -7843,8 +8325,14 @@
       <c r="P80" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q80">
+        <v>47157</v>
+      </c>
+      <c r="R80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>329</v>
       </c>
@@ -7893,8 +8381,14 @@
       <c r="P81" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q81">
+        <v>47156</v>
+      </c>
+      <c r="R81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>333</v>
       </c>
@@ -7943,8 +8437,14 @@
       <c r="P82" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q82">
+        <v>47145</v>
+      </c>
+      <c r="R82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>337</v>
       </c>
@@ -7993,8 +8493,14 @@
       <c r="P83" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q83">
+        <v>47144</v>
+      </c>
+      <c r="R83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>343</v>
       </c>
@@ -8043,8 +8549,14 @@
       <c r="P84" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q84">
+        <v>47139</v>
+      </c>
+      <c r="R84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>351</v>
       </c>
@@ -8093,8 +8605,14 @@
       <c r="P85" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q85">
+        <v>47138</v>
+      </c>
+      <c r="R85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>355</v>
       </c>
@@ -8143,8 +8661,14 @@
       <c r="P86" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q86">
+        <v>47124</v>
+      </c>
+      <c r="R86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>357</v>
       </c>
@@ -8193,8 +8717,14 @@
       <c r="P87" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q87">
+        <v>47087</v>
+      </c>
+      <c r="R87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>363</v>
       </c>
@@ -8243,8 +8773,14 @@
       <c r="P88" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q88">
+        <v>47558</v>
+      </c>
+      <c r="R88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>368</v>
       </c>
@@ -8293,8 +8829,14 @@
       <c r="P89" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q89">
+        <v>47070</v>
+      </c>
+      <c r="R89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>371</v>
       </c>
@@ -8343,8 +8885,14 @@
       <c r="P90" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q90">
+        <v>47057</v>
+      </c>
+      <c r="R90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>375</v>
       </c>
@@ -8393,8 +8941,14 @@
       <c r="P91" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q91">
+        <v>47055</v>
+      </c>
+      <c r="R91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>378</v>
       </c>
@@ -8443,8 +8997,14 @@
       <c r="P92" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q92">
+        <v>47037</v>
+      </c>
+      <c r="R92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>381</v>
       </c>
@@ -8493,8 +9053,14 @@
       <c r="P93" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q93">
+        <v>47034</v>
+      </c>
+      <c r="R93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>383</v>
       </c>
@@ -8543,8 +9109,14 @@
       <c r="P94" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q94">
+        <v>47021</v>
+      </c>
+      <c r="R94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>387</v>
       </c>
@@ -8593,8 +9165,14 @@
       <c r="P95" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q95">
+        <v>47021</v>
+      </c>
+      <c r="R95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>393</v>
       </c>
@@ -8643,8 +9221,14 @@
       <c r="P96" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q96">
+        <v>46962</v>
+      </c>
+      <c r="R96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>399</v>
       </c>
@@ -8693,8 +9277,14 @@
       <c r="P97" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q97">
+        <v>46943</v>
+      </c>
+      <c r="R97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>404</v>
       </c>
@@ -8743,8 +9333,14 @@
       <c r="P98" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q98">
+        <v>46941</v>
+      </c>
+      <c r="R98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>407</v>
       </c>
@@ -8793,8 +9389,14 @@
       <c r="P99" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q99">
+        <v>46931</v>
+      </c>
+      <c r="R99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>409</v>
       </c>
@@ -8843,8 +9445,14 @@
       <c r="P100" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q100">
+        <v>46913</v>
+      </c>
+      <c r="R100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>412</v>
       </c>
@@ -8893,8 +9501,14 @@
       <c r="P101" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q101">
+        <v>46859</v>
+      </c>
+      <c r="R101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>416</v>
       </c>
@@ -8943,8 +9557,14 @@
       <c r="P102" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q102">
+        <v>46838</v>
+      </c>
+      <c r="R102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>419</v>
       </c>
@@ -8993,8 +9613,14 @@
       <c r="P103" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q103">
+        <v>46796</v>
+      </c>
+      <c r="R103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>423</v>
       </c>
@@ -9043,8 +9669,14 @@
       <c r="P104" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q104">
+        <v>46779</v>
+      </c>
+      <c r="R104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>423</v>
       </c>
@@ -9093,8 +9725,14 @@
       <c r="P105" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q105">
+        <v>46778</v>
+      </c>
+      <c r="R105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>427</v>
       </c>
@@ -9143,8 +9781,14 @@
       <c r="P106" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q106">
+        <v>46743</v>
+      </c>
+      <c r="R106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>430</v>
       </c>
@@ -9193,8 +9837,14 @@
       <c r="P107" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q107">
+        <v>46764</v>
+      </c>
+      <c r="R107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>434</v>
       </c>
@@ -9243,8 +9893,14 @@
       <c r="P108" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q108">
+        <v>47619</v>
+      </c>
+      <c r="R108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>434</v>
       </c>
@@ -9293,8 +9949,14 @@
       <c r="P109" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q109">
+        <v>47618</v>
+      </c>
+      <c r="R109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>434</v>
       </c>
@@ -9343,8 +10005,14 @@
       <c r="P110" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q110">
+        <v>47617</v>
+      </c>
+      <c r="R110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>434</v>
       </c>
@@ -9393,8 +10061,14 @@
       <c r="P111" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q111">
+        <v>47616</v>
+      </c>
+      <c r="R111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>434</v>
       </c>
@@ -9443,8 +10117,14 @@
       <c r="P112" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q112">
+        <v>47623</v>
+      </c>
+      <c r="R112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>434</v>
       </c>
@@ -9493,8 +10173,14 @@
       <c r="P113" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q113">
+        <v>47622</v>
+      </c>
+      <c r="R113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>434</v>
       </c>
@@ -9543,8 +10229,14 @@
       <c r="P114" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q114">
+        <v>47621</v>
+      </c>
+      <c r="R114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>434</v>
       </c>
@@ -9593,8 +10285,14 @@
       <c r="P115" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q115">
+        <v>47620</v>
+      </c>
+      <c r="R115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>442</v>
       </c>
@@ -9643,8 +10341,14 @@
       <c r="P116" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q116">
+        <v>47526</v>
+      </c>
+      <c r="R116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>445</v>
       </c>
@@ -9693,8 +10397,14 @@
       <c r="P117" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q117">
+        <v>47348</v>
+      </c>
+      <c r="R117" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>445</v>
       </c>
@@ -9743,8 +10453,14 @@
       <c r="P118" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q118">
+        <v>47347</v>
+      </c>
+      <c r="R118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>445</v>
       </c>
@@ -9793,8 +10509,14 @@
       <c r="P119" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q119">
+        <v>47346</v>
+      </c>
+      <c r="R119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>445</v>
       </c>
@@ -9843,8 +10565,14 @@
       <c r="P120" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q120">
+        <v>47345</v>
+      </c>
+      <c r="R120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>445</v>
       </c>
@@ -9893,8 +10621,14 @@
       <c r="P121" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q121">
+        <v>47343</v>
+      </c>
+      <c r="R121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>445</v>
       </c>
@@ -9943,8 +10677,14 @@
       <c r="P122" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q122">
+        <v>47342</v>
+      </c>
+      <c r="R122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>445</v>
       </c>
@@ -9993,8 +10733,14 @@
       <c r="P123" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q123">
+        <v>47341</v>
+      </c>
+      <c r="R123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>445</v>
       </c>
@@ -10043,8 +10789,14 @@
       <c r="P124" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q124">
+        <v>47340</v>
+      </c>
+      <c r="R124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>445</v>
       </c>
@@ -10093,8 +10845,14 @@
       <c r="P125" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q125">
+        <v>47339</v>
+      </c>
+      <c r="R125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>445</v>
       </c>
@@ -10143,8 +10901,14 @@
       <c r="P126" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q126">
+        <v>47373</v>
+      </c>
+      <c r="R126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>445</v>
       </c>
@@ -10193,8 +10957,14 @@
       <c r="P127" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q127">
+        <v>47372</v>
+      </c>
+      <c r="R127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>445</v>
       </c>
@@ -10243,8 +11013,14 @@
       <c r="P128" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q128">
+        <v>47371</v>
+      </c>
+      <c r="R128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>445</v>
       </c>
@@ -10293,8 +11069,14 @@
       <c r="P129" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q129">
+        <v>47370</v>
+      </c>
+      <c r="R129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>445</v>
       </c>
@@ -10343,8 +11125,14 @@
       <c r="P130" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q130">
+        <v>47369</v>
+      </c>
+      <c r="R130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>445</v>
       </c>
@@ -10393,8 +11181,14 @@
       <c r="P131" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q131">
+        <v>47368</v>
+      </c>
+      <c r="R131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>445</v>
       </c>
@@ -10443,8 +11237,14 @@
       <c r="P132" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q132">
+        <v>47367</v>
+      </c>
+      <c r="R132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>455</v>
       </c>
@@ -10493,8 +11293,14 @@
       <c r="P133" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q133">
+        <v>47221</v>
+      </c>
+      <c r="R133" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>455</v>
       </c>
@@ -10543,8 +11349,14 @@
       <c r="P134" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q134">
+        <v>47220</v>
+      </c>
+      <c r="R134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>455</v>
       </c>
@@ -10593,8 +11405,14 @@
       <c r="P135" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q135">
+        <v>47219</v>
+      </c>
+      <c r="R135" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>458</v>
       </c>
@@ -10643,8 +11461,14 @@
       <c r="P136" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q136">
+        <v>47137</v>
+      </c>
+      <c r="R136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>458</v>
       </c>
@@ -10693,8 +11517,14 @@
       <c r="P137" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q137">
+        <v>47136</v>
+      </c>
+      <c r="R137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>458</v>
       </c>
@@ -10743,8 +11573,14 @@
       <c r="P138" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q138">
+        <v>47135</v>
+      </c>
+      <c r="R138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>458</v>
       </c>
@@ -10793,8 +11629,14 @@
       <c r="P139" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q139">
+        <v>47134</v>
+      </c>
+      <c r="R139" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>463</v>
       </c>
@@ -10843,8 +11685,14 @@
       <c r="P140" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q140">
+        <v>47022</v>
+      </c>
+      <c r="R140" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>463</v>
       </c>
@@ -10893,8 +11741,14 @@
       <c r="P141" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q141">
+        <v>47021</v>
+      </c>
+      <c r="R141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>463</v>
       </c>
@@ -10943,8 +11797,14 @@
       <c r="P142" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q142">
+        <v>47020</v>
+      </c>
+      <c r="R142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>463</v>
       </c>
@@ -10993,8 +11853,14 @@
       <c r="P143" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q143">
+        <v>47019</v>
+      </c>
+      <c r="R143" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>463</v>
       </c>
@@ -11043,8 +11909,14 @@
       <c r="P144" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q144">
+        <v>47018</v>
+      </c>
+      <c r="R144" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>463</v>
       </c>
@@ -11093,8 +11965,14 @@
       <c r="P145" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q145">
+        <v>47017</v>
+      </c>
+      <c r="R145" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>463</v>
       </c>
@@ -11143,8 +12021,14 @@
       <c r="P146" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q146">
+        <v>47016</v>
+      </c>
+      <c r="R146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>463</v>
       </c>
@@ -11193,8 +12077,14 @@
       <c r="P147" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q147">
+        <v>47015</v>
+      </c>
+      <c r="R147" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>463</v>
       </c>
@@ -11243,8 +12133,14 @@
       <c r="P148" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q148">
+        <v>47014</v>
+      </c>
+      <c r="R148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>463</v>
       </c>
@@ -11293,8 +12189,14 @@
       <c r="P149" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q149">
+        <v>47013</v>
+      </c>
+      <c r="R149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>463</v>
       </c>
@@ -11343,8 +12245,14 @@
       <c r="P150" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q150">
+        <v>47012</v>
+      </c>
+      <c r="R150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>463</v>
       </c>
@@ -11393,8 +12301,14 @@
       <c r="P151" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q151">
+        <v>47011</v>
+      </c>
+      <c r="R151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>463</v>
       </c>
@@ -11443,8 +12357,14 @@
       <c r="P152" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q152">
+        <v>47010</v>
+      </c>
+      <c r="R152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>465</v>
       </c>
@@ -11493,8 +12413,14 @@
       <c r="P153" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q153">
+        <v>47255</v>
+      </c>
+      <c r="R153" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>465</v>
       </c>
@@ -11543,8 +12469,14 @@
       <c r="P154" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q154">
+        <v>47254</v>
+      </c>
+      <c r="R154" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>465</v>
       </c>
@@ -11593,8 +12525,14 @@
       <c r="P155" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q155">
+        <v>47253</v>
+      </c>
+      <c r="R155" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>465</v>
       </c>
@@ -11643,8 +12581,14 @@
       <c r="P156" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q156">
+        <v>47252</v>
+      </c>
+      <c r="R156" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>465</v>
       </c>
@@ -11693,8 +12637,14 @@
       <c r="P157" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q157">
+        <v>47251</v>
+      </c>
+      <c r="R157" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>465</v>
       </c>
@@ -11743,8 +12693,14 @@
       <c r="P158" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q158">
+        <v>47250</v>
+      </c>
+      <c r="R158" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>470</v>
       </c>
@@ -11793,8 +12749,14 @@
       <c r="P159" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q159">
+        <v>46950</v>
+      </c>
+      <c r="R159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>470</v>
       </c>
@@ -11843,8 +12805,14 @@
       <c r="P160" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q160">
+        <v>46949</v>
+      </c>
+      <c r="R160" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>470</v>
       </c>
@@ -11893,8 +12861,14 @@
       <c r="P161" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q161">
+        <v>46948</v>
+      </c>
+      <c r="R161" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>470</v>
       </c>
@@ -11943,8 +12917,14 @@
       <c r="P162" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q162">
+        <v>46947</v>
+      </c>
+      <c r="R162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>472</v>
       </c>
@@ -11993,8 +12973,14 @@
       <c r="P163" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q163">
+        <v>46925</v>
+      </c>
+      <c r="R163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>472</v>
       </c>
@@ -12043,8 +13029,14 @@
       <c r="P164" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q164">
+        <v>46924</v>
+      </c>
+      <c r="R164" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>472</v>
       </c>
@@ -12093,8 +13085,14 @@
       <c r="P165" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q165">
+        <v>46923</v>
+      </c>
+      <c r="R165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>474</v>
       </c>
@@ -12143,8 +13141,14 @@
       <c r="P166" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q166">
+        <v>46907</v>
+      </c>
+      <c r="R166" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>474</v>
       </c>
@@ -12193,8 +13197,14 @@
       <c r="P167" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q167">
+        <v>46906</v>
+      </c>
+      <c r="R167" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>474</v>
       </c>
@@ -12243,8 +13253,14 @@
       <c r="P168" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q168">
+        <v>46905</v>
+      </c>
+      <c r="R168" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>474</v>
       </c>
@@ -12293,8 +13309,14 @@
       <c r="P169" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q169">
+        <v>46904</v>
+      </c>
+      <c r="R169" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>474</v>
       </c>
@@ -12343,8 +13365,14 @@
       <c r="P170" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q170">
+        <v>46903</v>
+      </c>
+      <c r="R170" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>476</v>
       </c>
@@ -12393,8 +13421,14 @@
       <c r="P171" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q171">
+        <v>46884</v>
+      </c>
+      <c r="R171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>481</v>
       </c>
@@ -12443,8 +13477,14 @@
       <c r="P172" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q172">
+        <v>46807</v>
+      </c>
+      <c r="R172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>485</v>
       </c>
@@ -12493,8 +13533,14 @@
       <c r="P173" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q173">
+        <v>46742</v>
+      </c>
+      <c r="R173" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>485</v>
       </c>
@@ -12543,8 +13589,14 @@
       <c r="P174" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q174">
+        <v>46741</v>
+      </c>
+      <c r="R174" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>485</v>
       </c>
@@ -12593,8 +13645,14 @@
       <c r="P175" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q175">
+        <v>46740</v>
+      </c>
+      <c r="R175" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>485</v>
       </c>
@@ -12643,8 +13701,14 @@
       <c r="P176" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q176">
+        <v>46739</v>
+      </c>
+      <c r="R176" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>485</v>
       </c>
@@ -12693,8 +13757,14 @@
       <c r="P177" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q177">
+        <v>46738</v>
+      </c>
+      <c r="R177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>488</v>
       </c>
@@ -12743,8 +13813,14 @@
       <c r="P178" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q178">
+        <v>46738</v>
+      </c>
+      <c r="R178" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>492</v>
       </c>
@@ -12793,8 +13869,14 @@
       <c r="P179" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q179">
+        <v>46686</v>
+      </c>
+      <c r="R179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>492</v>
       </c>
@@ -12843,8 +13925,14 @@
       <c r="P180" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q180">
+        <v>46685</v>
+      </c>
+      <c r="R180" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>492</v>
       </c>
@@ -12893,8 +13981,14 @@
       <c r="P181" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q181">
+        <v>46684</v>
+      </c>
+      <c r="R181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>492</v>
       </c>
@@ -12943,8 +14037,14 @@
       <c r="P182" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q182">
+        <v>46683</v>
+      </c>
+      <c r="R182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>492</v>
       </c>
@@ -12993,8 +14093,14 @@
       <c r="P183" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q183">
+        <v>46682</v>
+      </c>
+      <c r="R183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>496</v>
       </c>
@@ -13043,8 +14149,14 @@
       <c r="P184" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q184">
+        <v>46700</v>
+      </c>
+      <c r="R184" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>501</v>
       </c>
@@ -13093,8 +14205,14 @@
       <c r="P185" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q185">
+        <v>46216</v>
+      </c>
+      <c r="R185" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>505</v>
       </c>
@@ -13143,8 +14261,14 @@
       <c r="P186" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q186">
+        <v>46208</v>
+      </c>
+      <c r="R186" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>507</v>
       </c>
@@ -13193,8 +14317,14 @@
       <c r="P187" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q187">
+        <v>46168</v>
+      </c>
+      <c r="R187" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>507</v>
       </c>
@@ -13243,8 +14373,14 @@
       <c r="P188" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q188">
+        <v>46168</v>
+      </c>
+      <c r="R188" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>509</v>
       </c>
@@ -13293,8 +14429,14 @@
       <c r="P189" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q189">
+        <v>46134</v>
+      </c>
+      <c r="R189" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>509</v>
       </c>
@@ -13343,8 +14485,14 @@
       <c r="P190" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q190">
+        <v>46133</v>
+      </c>
+      <c r="R190" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>513</v>
       </c>
@@ -13393,8 +14541,14 @@
       <c r="P191" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q191">
+        <v>46095</v>
+      </c>
+      <c r="R191" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>513</v>
       </c>
@@ -13443,8 +14597,14 @@
       <c r="P192" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q192">
+        <v>46094</v>
+      </c>
+      <c r="R192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>517</v>
       </c>
@@ -13493,8 +14653,14 @@
       <c r="P193" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q193">
+        <v>46086</v>
+      </c>
+      <c r="R193" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>523</v>
       </c>
@@ -13543,8 +14709,14 @@
       <c r="P194" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q194">
+        <v>46061</v>
+      </c>
+      <c r="R194" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>528</v>
       </c>
@@ -13593,8 +14765,14 @@
       <c r="P195" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q195">
+        <v>46056</v>
+      </c>
+      <c r="R195" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>530</v>
       </c>
@@ -13643,8 +14821,14 @@
       <c r="P196" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q196">
+        <v>46013</v>
+      </c>
+      <c r="R196" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>535</v>
       </c>
@@ -13693,8 +14877,14 @@
       <c r="P197" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q197">
+        <v>45989</v>
+      </c>
+      <c r="R197" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>540</v>
       </c>
@@ -13743,8 +14933,14 @@
       <c r="P198" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q198">
+        <v>45949</v>
+      </c>
+      <c r="R198" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>540</v>
       </c>
@@ -13793,8 +14989,14 @@
       <c r="P199" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q199">
+        <v>45949</v>
+      </c>
+      <c r="R199" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>546</v>
       </c>
@@ -13843,8 +15045,14 @@
       <c r="P200" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q200">
+        <v>45942</v>
+      </c>
+      <c r="R200" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>546</v>
       </c>
@@ -13893,8 +15101,14 @@
       <c r="P201" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q201">
+        <v>45941</v>
+      </c>
+      <c r="R201" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>548</v>
       </c>
@@ -13943,8 +15157,14 @@
       <c r="P202" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q202">
+        <v>45834</v>
+      </c>
+      <c r="R202" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>552</v>
       </c>
@@ -13993,8 +15213,14 @@
       <c r="P203" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q203">
+        <v>45789</v>
+      </c>
+      <c r="R203" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>557</v>
       </c>
@@ -14043,8 +15269,14 @@
       <c r="P204" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q204">
+        <v>45705</v>
+      </c>
+      <c r="R204" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>562</v>
       </c>
@@ -14093,8 +15325,14 @@
       <c r="P205" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q205">
+        <v>45704</v>
+      </c>
+      <c r="R205" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>568</v>
       </c>
@@ -14143,8 +15381,14 @@
       <c r="P206" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q206">
+        <v>45698</v>
+      </c>
+      <c r="R206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>576</v>
       </c>
@@ -14193,8 +15437,14 @@
       <c r="P207" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q207">
+        <v>45698</v>
+      </c>
+      <c r="R207" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>580</v>
       </c>
@@ -14243,8 +15493,14 @@
       <c r="P208" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q208">
+        <v>45663</v>
+      </c>
+      <c r="R208" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>585</v>
       </c>
@@ -14293,8 +15549,14 @@
       <c r="P209" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q209">
+        <v>45659</v>
+      </c>
+      <c r="R209" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>590</v>
       </c>
@@ -14343,8 +15605,14 @@
       <c r="P210" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q210">
+        <v>45660</v>
+      </c>
+      <c r="R210" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>595</v>
       </c>
@@ -14393,8 +15661,14 @@
       <c r="P211" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q211">
+        <v>45655</v>
+      </c>
+      <c r="R211" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>595</v>
       </c>
@@ -14443,8 +15717,14 @@
       <c r="P212" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q212">
+        <v>45655</v>
+      </c>
+      <c r="R212" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>598</v>
       </c>
@@ -14493,8 +15773,14 @@
       <c r="P213" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q213">
+        <v>45648</v>
+      </c>
+      <c r="R213" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>603</v>
       </c>
@@ -14543,8 +15829,14 @@
       <c r="P214" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q214">
+        <v>45647</v>
+      </c>
+      <c r="R214" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>607</v>
       </c>
@@ -14593,8 +15885,14 @@
       <c r="P215" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q215">
+        <v>45632</v>
+      </c>
+      <c r="R215" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>613</v>
       </c>
@@ -14643,8 +15941,14 @@
       <c r="P216" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q216">
+        <v>45630</v>
+      </c>
+      <c r="R216" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>616</v>
       </c>
@@ -14693,8 +15997,14 @@
       <c r="P217" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q217">
+        <v>45605</v>
+      </c>
+      <c r="R217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>620</v>
       </c>
@@ -14743,8 +16053,14 @@
       <c r="P218" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q218">
+        <v>45492</v>
+      </c>
+      <c r="R218" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>624</v>
       </c>
@@ -14793,8 +16109,14 @@
       <c r="P219" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q219">
+        <v>45483</v>
+      </c>
+      <c r="R219" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>630</v>
       </c>
@@ -14843,8 +16165,14 @@
       <c r="P220" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q220">
+        <v>45479</v>
+      </c>
+      <c r="R220" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>633</v>
       </c>
@@ -14893,8 +16221,14 @@
       <c r="P221" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q221">
+        <v>45471</v>
+      </c>
+      <c r="R221" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>637</v>
       </c>
@@ -14943,8 +16277,14 @@
       <c r="P222" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q222">
+        <v>45465</v>
+      </c>
+      <c r="R222" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>640</v>
       </c>
@@ -14993,8 +16333,14 @@
       <c r="P223" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q223">
+        <v>45462</v>
+      </c>
+      <c r="R223" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>640</v>
       </c>
@@ -15043,8 +16389,14 @@
       <c r="P224" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q224">
+        <v>45461</v>
+      </c>
+      <c r="R224" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>645</v>
       </c>
@@ -15093,8 +16445,14 @@
       <c r="P225" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q225">
+        <v>45459</v>
+      </c>
+      <c r="R225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>649</v>
       </c>
@@ -15143,8 +16501,14 @@
       <c r="P226" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q226">
+        <v>45414</v>
+      </c>
+      <c r="R226" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>651</v>
       </c>
@@ -15193,8 +16557,14 @@
       <c r="P227" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q227">
+        <v>45411</v>
+      </c>
+      <c r="R227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>659</v>
       </c>
@@ -15243,8 +16613,14 @@
       <c r="P228" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q228">
+        <v>45399</v>
+      </c>
+      <c r="R228" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>662</v>
       </c>
@@ -15293,8 +16669,14 @@
       <c r="P229" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q229">
+        <v>45366</v>
+      </c>
+      <c r="R229" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>668</v>
       </c>
@@ -15343,8 +16725,14 @@
       <c r="P230" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q230">
+        <v>45359</v>
+      </c>
+      <c r="R230" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>673</v>
       </c>
@@ -15393,8 +16781,14 @@
       <c r="P231" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q231">
+        <v>45350</v>
+      </c>
+      <c r="R231" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>678</v>
       </c>
@@ -15443,8 +16837,14 @@
       <c r="P232" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q232">
+        <v>45341</v>
+      </c>
+      <c r="R232" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>684</v>
       </c>
@@ -15493,8 +16893,14 @@
       <c r="P233" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q233">
+        <v>45282</v>
+      </c>
+      <c r="R233" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>690</v>
       </c>
@@ -15543,8 +16949,14 @@
       <c r="P234" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q234">
+        <v>45282</v>
+      </c>
+      <c r="R234" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>695</v>
       </c>
@@ -15593,8 +17005,14 @@
       <c r="P235" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q235">
+        <v>45279</v>
+      </c>
+      <c r="R235" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>699</v>
       </c>
@@ -15643,8 +17061,14 @@
       <c r="P236" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q236">
+        <v>45164</v>
+      </c>
+      <c r="R236" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>702</v>
       </c>
@@ -15693,8 +17117,14 @@
       <c r="P237" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q237">
+        <v>45138</v>
+      </c>
+      <c r="R237" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>705</v>
       </c>
@@ -15743,8 +17173,14 @@
       <c r="P238" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q238">
+        <v>45131</v>
+      </c>
+      <c r="R238" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>709</v>
       </c>
@@ -15793,8 +17229,14 @@
       <c r="P239" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q239">
+        <v>45131</v>
+      </c>
+      <c r="R239" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>712</v>
       </c>
@@ -15843,8 +17285,14 @@
       <c r="P240" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q240">
+        <v>45129</v>
+      </c>
+      <c r="R240" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>714</v>
       </c>
@@ -15893,8 +17341,14 @@
       <c r="P241" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q241">
+        <v>45101</v>
+      </c>
+      <c r="R241" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>717</v>
       </c>
@@ -15943,8 +17397,14 @@
       <c r="P242" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q242">
+        <v>45083</v>
+      </c>
+      <c r="R242" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>723</v>
       </c>
@@ -15993,8 +17453,14 @@
       <c r="P243" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q243">
+        <v>45038</v>
+      </c>
+      <c r="R243" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>728</v>
       </c>
@@ -16043,8 +17509,14 @@
       <c r="P244" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q244">
+        <v>44982</v>
+      </c>
+      <c r="R244" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>732</v>
       </c>
@@ -16093,8 +17565,14 @@
       <c r="P245" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q245">
+        <v>44931</v>
+      </c>
+      <c r="R245" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>738</v>
       </c>
@@ -16143,8 +17621,14 @@
       <c r="P246" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q246">
+        <v>44927</v>
+      </c>
+      <c r="R246" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>742</v>
       </c>
@@ -16193,8 +17677,14 @@
       <c r="P247" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q247">
+        <v>44924</v>
+      </c>
+      <c r="R247" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>748</v>
       </c>
@@ -16243,8 +17733,14 @@
       <c r="P248" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q248">
+        <v>44920</v>
+      </c>
+      <c r="R248" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>748</v>
       </c>
@@ -16293,8 +17789,14 @@
       <c r="P249" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q249">
+        <v>44920</v>
+      </c>
+      <c r="R249" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>752</v>
       </c>
@@ -16343,8 +17845,14 @@
       <c r="P250" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q250">
+        <v>44810</v>
+      </c>
+      <c r="R250" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>756</v>
       </c>
@@ -16393,8 +17901,14 @@
       <c r="P251" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q251">
+        <v>44720</v>
+      </c>
+      <c r="R251" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>758</v>
       </c>
@@ -16443,8 +17957,14 @@
       <c r="P252" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q252">
+        <v>44595</v>
+      </c>
+      <c r="R252" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>763</v>
       </c>
@@ -16493,8 +18013,14 @@
       <c r="P253" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q253">
+        <v>44121</v>
+      </c>
+      <c r="R253" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>766</v>
       </c>
@@ -16543,42 +18069,49 @@
       <c r="P254" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="Q254">
+        <v>47502</v>
+      </c>
+      <c r="R254" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q254"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.08984375" customWidth="1"/>
-    <col min="12" max="12" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16631,7 +18164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>772</v>
       </c>
@@ -16684,7 +18217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>772</v>
       </c>
@@ -16737,7 +18270,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>772</v>
       </c>
@@ -16790,7 +18323,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>772</v>
       </c>
@@ -16843,7 +18376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>774</v>
       </c>
@@ -16896,7 +18429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>774</v>
       </c>
@@ -16949,7 +18482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>774</v>
       </c>
@@ -17002,7 +18535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>774</v>
       </c>
@@ -17055,7 +18588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>774</v>
       </c>
@@ -17108,7 +18641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>774</v>
       </c>
@@ -17161,7 +18694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>774</v>
       </c>
@@ -17214,7 +18747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>774</v>
       </c>
@@ -17267,7 +18800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>774</v>
       </c>
@@ -17320,7 +18853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>778</v>
       </c>
@@ -17373,7 +18906,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>778</v>
       </c>
@@ -17426,7 +18959,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>778</v>
       </c>
@@ -17479,7 +19012,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>778</v>
       </c>
@@ -17532,7 +19065,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>778</v>
       </c>
@@ -17585,7 +19118,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>778</v>
       </c>
@@ -17638,7 +19171,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>778</v>
       </c>
@@ -17691,7 +19224,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>778</v>
       </c>
@@ -17744,7 +19277,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>782</v>
       </c>
@@ -17797,7 +19330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>789</v>
       </c>
@@ -17850,7 +19383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>789</v>
       </c>
@@ -17903,7 +19436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>789</v>
       </c>
@@ -17956,7 +19489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>789</v>
       </c>
@@ -18009,7 +19542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>789</v>
       </c>
@@ -18062,7 +19595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>789</v>
       </c>
@@ -18115,7 +19648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>789</v>
       </c>
@@ -18168,7 +19701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>794</v>
       </c>
@@ -18221,7 +19754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>794</v>
       </c>
@@ -18274,7 +19807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>794</v>
       </c>
@@ -18327,7 +19860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>794</v>
       </c>
@@ -18380,7 +19913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>794</v>
       </c>
@@ -18433,7 +19966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>794</v>
       </c>
@@ -18486,7 +20019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>794</v>
       </c>
@@ -18539,7 +20072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>794</v>
       </c>
@@ -18592,7 +20125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>794</v>
       </c>
@@ -18645,7 +20178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>794</v>
       </c>
@@ -18698,7 +20231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>794</v>
       </c>
@@ -18751,7 +20284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>794</v>
       </c>
@@ -18804,7 +20337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>802</v>
       </c>
@@ -18857,7 +20390,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>809</v>
       </c>
@@ -18910,7 +20443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>809</v>
       </c>
@@ -18963,7 +20496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>813</v>
       </c>
@@ -19016,7 +20549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>813</v>
       </c>
@@ -19069,7 +20602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>813</v>
       </c>
@@ -19122,7 +20655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>813</v>
       </c>
@@ -19175,7 +20708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>813</v>
       </c>
@@ -19228,7 +20761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>809</v>
       </c>
@@ -19281,7 +20814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>809</v>
       </c>
@@ -19334,7 +20867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>809</v>
       </c>
@@ -19387,7 +20920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>809</v>
       </c>
@@ -19440,7 +20973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>822</v>
       </c>
@@ -19493,7 +21026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>822</v>
       </c>
@@ -19546,7 +21079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>822</v>
       </c>
@@ -19599,7 +21132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>822</v>
       </c>
@@ -19652,7 +21185,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>824</v>
       </c>
@@ -19705,7 +21238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>824</v>
       </c>
@@ -19758,7 +21291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>822</v>
       </c>
@@ -19811,7 +21344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>822</v>
       </c>
@@ -19864,7 +21397,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>822</v>
       </c>
@@ -19917,7 +21450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>822</v>
       </c>
@@ -19970,7 +21503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>822</v>
       </c>
@@ -20023,7 +21556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>769</v>
       </c>
